--- a/CASUAL/LA ONT/DE GRANO, RONALEI.xlsx
+++ b/CASUAL/LA ONT/DE GRANO, RONALEI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>10/20-22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -592,15 +598,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -613,11 +610,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,7 +1320,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1363,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1427,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1487,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1553,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1616,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1714,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1773,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1838,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1881,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1956,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2142,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2208,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2266,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2332,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2388,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2463,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2506,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2572,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2628,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2726,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2789,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K103" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K104" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3257,12 +3263,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,14 +3298,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3312,16 +3318,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>44013</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3334,16 +3340,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3369,18 +3375,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3427,7 +3433,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>35.75</v>
+        <v>39.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3437,7 +3443,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>43.75</v>
+        <v>47.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3948,11 +3954,15 @@
       <c r="A35" s="40">
         <v>44682</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -4349,15 +4359,17 @@
       <c r="B54" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39">
         <v>3</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -4371,13 +4383,15 @@
         <v>45231</v>
       </c>
       <c r="B55" s="20"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
@@ -4389,13 +4403,15 @@
         <v>45261</v>
       </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
@@ -4403,8 +4419,8 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45292</v>
+      <c r="A57" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4422,7 +4438,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4440,7 +4456,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4458,7 +4474,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4476,7 +4492,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4494,7 +4510,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4512,7 +4528,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4530,7 +4546,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4548,7 +4564,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4566,7 +4582,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4584,7 +4600,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4602,7 +4618,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4620,7 +4636,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4638,7 +4654,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4656,7 +4672,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4674,7 +4690,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4692,7 +4708,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4710,7 +4726,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4728,7 +4744,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4746,7 +4762,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4764,7 +4780,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4782,7 +4798,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4800,7 +4816,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4818,7 +4834,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4836,7 +4852,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4853,7 +4869,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>46023</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5189,34 +5207,50 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="43"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="43"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="15"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="43"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5285,14 +5319,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5306,17 +5340,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44013</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5330,17 +5364,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5366,18 +5400,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7425,7 +7459,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,11 +7522,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/DE GRANO, RONALEI.xlsx
+++ b/CASUAL/LA ONT/DE GRANO, RONALEI.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -598,6 +601,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -610,20 +622,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,7 +1323,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1366,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1430,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1490,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1556,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1619,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1717,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1776,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1841,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1884,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1959,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2145,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2211,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2269,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2335,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2391,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2466,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2509,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2575,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2631,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2729,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2792,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,9 +3269,9 @@
   <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A27" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,14 +3301,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3318,16 +3321,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>44013</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3340,16 +3343,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3375,18 +3378,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3433,7 +3436,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>39.25</v>
+        <v>37.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3443,7 +3446,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>47.5</v>
+        <v>46.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4402,11 +4405,15 @@
       <c r="A56" s="40">
         <v>45261</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>2</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -4440,7 +4447,9 @@
       <c r="A58" s="40">
         <v>45292</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
@@ -4449,10 +4458,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="39"/>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
@@ -5240,17 +5253,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5319,14 +5332,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5340,17 +5353,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44013</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5364,17 +5377,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5400,18 +5413,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
